--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3679381.769301515</v>
+        <v>3673660.15733363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.58283624</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>145.045087298537</v>
+        <v>99.69856304335892</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>72.27173600468102</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>284.5615160058696</v>
       </c>
       <c r="H5" t="n">
-        <v>219.6252546901506</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>10.33928636045597</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>186.2507170030308</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>338.7741769649071</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>194.7016335971157</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="11">
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396218</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.487334137518388</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>25.08092246628445</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206842</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534536</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>14.1585421895222</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>122.11685474901</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>31.80684691296301</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -2052,13 +2052,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>250.4794177243436</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>67.02802063172295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>76.18909958464479</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>11.95826241626295</v>
+        <v>144.8192118989156</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>8.348269799534489</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>100.4469244214028</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>120.1732544673561</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>89.88441017723287</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>240.6094275519183</v>
+        <v>3.559750570600608</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>159.783662171554</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>55.49945341591075</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>67.41386939711298</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1369.416431066817</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1369.416431066817</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>295.8809182883532</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C5" t="n">
-        <v>1194.175505447095</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D5" t="n">
-        <v>835.9098068403443</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E5" t="n">
-        <v>450.1215542421001</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F5" t="n">
-        <v>443.1760534928966</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G5" t="n">
-        <v>429.2526494314876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,10 +4649,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.1897464970881</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>359.1897464970881</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>359.1897464970881</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>211.276652914695</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>64.38670541678462</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>64.38670541678462</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>64.38670541678462</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.1897464970881</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117927</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>262.9439240077758</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221264</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1190.010945960184</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>847.8148076117927</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,7 +5026,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5038,55 +5038,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468569</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,22 +5150,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>682.2576395672671</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C13" t="n">
-        <v>682.2576395672671</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D13" t="n">
-        <v>532.1410001549314</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5229,22 +5229,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1131.039769608815</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.039769608815</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>903.0502187107973</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>682.2576395672671</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5278,52 +5278,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,16 +5387,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>818.1148797149126</v>
+        <v>580.1131475839754</v>
       </c>
       <c r="C16" t="n">
-        <v>803.8133219477185</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D16" t="n">
-        <v>653.6966825353827</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5469,19 +5469,19 @@
         <v>1764.65758193153</v>
       </c>
       <c r="U16" t="n">
-        <v>1764.65758193153</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V16" t="n">
-        <v>1509.973093725643</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W16" t="n">
-        <v>1220.555923688682</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X16" t="n">
-        <v>1220.555923688682</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y16" t="n">
-        <v>999.7633445451523</v>
+        <v>580.1131475839754</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1460.488316778687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2439.038619608516</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2985.817436667298</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>656.9233744498081</v>
+        <v>691.980755747597</v>
       </c>
       <c r="C19" t="n">
-        <v>656.9233744498081</v>
+        <v>523.0445728196901</v>
       </c>
       <c r="D19" t="n">
-        <v>506.8067350374723</v>
+        <v>372.9279334073543</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>225.0148398249612</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
         <v>192.8867116300491</v>
@@ -5700,25 +5700,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U19" t="n">
-        <v>1421.817611836186</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V19" t="n">
-        <v>1167.133123630299</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="W19" t="n">
-        <v>877.7159535933382</v>
+        <v>1322.411350619384</v>
       </c>
       <c r="X19" t="n">
-        <v>877.7159535933382</v>
+        <v>1094.421799721367</v>
       </c>
       <c r="Y19" t="n">
-        <v>656.9233744498081</v>
+        <v>873.6292205778367</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>786.6724891157196</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2536.15366264131</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>3297.750360443162</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.722831322499</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5822,13 +5822,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1385.724257814702</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1131.039769608815</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1063.33469826364</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>835.3451473656224</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3451473656224</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2782.232616025903</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3507.942201196468</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188665</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6177,22 +6177,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.890966501056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1288.206478295169</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.247791846033</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>983.2582409480156</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.2582409480156</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O26" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>509.735988140349</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C28" t="n">
-        <v>340.7998052124422</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D28" t="n">
-        <v>340.7998052124422</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>192.886711630049</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>192.886711630049</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1752.57852898581</v>
+        <v>1528.545092467931</v>
       </c>
       <c r="U28" t="n">
-        <v>1463.475662111454</v>
+        <v>1239.442225593575</v>
       </c>
       <c r="V28" t="n">
-        <v>1208.791173905567</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="W28" t="n">
-        <v>919.3740038686061</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="X28" t="n">
-        <v>691.3844529705888</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="Y28" t="n">
-        <v>691.3844529705888</v>
+        <v>763.9651582441578</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,7 +6448,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
         <v>850.213983755162</v>
@@ -6463,28 +6463,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>913.1101661838552</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1364.144379432264</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>1897.676284104189</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
@@ -6499,16 +6499,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6545,10 +6545,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>590.7492891710236</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="C31" t="n">
-        <v>421.8131062431167</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="D31" t="n">
-        <v>271.696466830781</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E31" t="n">
-        <v>271.696466830781</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F31" t="n">
-        <v>271.696466830781</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G31" t="n">
-        <v>103.9936302055</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1355.643526557401</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V31" t="n">
-        <v>1100.959038351514</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W31" t="n">
-        <v>811.5418683145538</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X31" t="n">
-        <v>811.5418683145538</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y31" t="n">
-        <v>590.7492891710236</v>
+        <v>669.3382175405923</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6706,22 +6706,22 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867999</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.420735780953</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>787.8860284537387</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>559.8964775557214</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>339.1038984121913</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6916,49 +6916,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1390.197710791128</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193956</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420603</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,22 +7046,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.514648437705</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.514648437705</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>3309.398009025369</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>3161.484915442976</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>4496.535381004074</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>4207.432514129718</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>3952.748025923831</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>3952.748025923831</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>3861.955692411475</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>3641.163113267944</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839441</v>
@@ -7177,22 +7177,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2151.197749519703</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3130.95002174635</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188665</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.9395339702917</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C40" t="n">
-        <v>343.0033510423848</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>192.886711630049</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>192.886711630049</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>192.886711630049</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839441</v>
@@ -7359,25 +7359,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T40" t="n">
-        <v>1674.827124689058</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U40" t="n">
-        <v>1674.827124689058</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V40" t="n">
-        <v>1431.78729887904</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W40" t="n">
-        <v>1142.370128842079</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X40" t="n">
-        <v>914.3805779440615</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.5879988005314</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,13 +7396,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7417,19 +7417,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1971.087962216427</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M41" t="n">
-        <v>2504.619866888352</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N41" t="n">
-        <v>3051.398683947134</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O41" t="n">
-        <v>3554.371154826471</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P41" t="n">
-        <v>4267.726242273417</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862918</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7490,34 +7490,34 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.3002584566048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
         <v>95.56103444839441</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1794.945827547579</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1505.842960673222</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1251.158472467335</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>961.7413024303746</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>961.7413024303746</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>740.9487232868445</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K44" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
@@ -7727,19 +7727,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,7 +7757,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
         <v>2043.809373447819</v>
@@ -7766,13 +7766,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>399.0634049978502</v>
+        <v>500.2948715744237</v>
       </c>
       <c r="C46" t="n">
-        <v>399.0634049978502</v>
+        <v>331.3586886465168</v>
       </c>
       <c r="D46" t="n">
-        <v>248.9467655855144</v>
+        <v>331.3586886465168</v>
       </c>
       <c r="E46" t="n">
-        <v>192.886711630049</v>
+        <v>331.3586886465168</v>
       </c>
       <c r="F46" t="n">
-        <v>192.886711630049</v>
+        <v>331.3586886465168</v>
       </c>
       <c r="G46" t="n">
-        <v>192.886711630049</v>
+        <v>163.6558520212358</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>163.6558520212358</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7833,25 +7833,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1420.142636483172</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>1130.725466446211</v>
       </c>
       <c r="X46" t="n">
-        <v>619.8559841413803</v>
+        <v>902.7359155481936</v>
       </c>
       <c r="Y46" t="n">
-        <v>399.0634049978502</v>
+        <v>681.9433364046635</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>198.7154374299952</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8938,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>411.0304280899003</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>71.00061210864527</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,19 +9412,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>216.9877583263328</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>180.7381496078611</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>133.2530576400247</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>297.8289162490797</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>374.1693948021941</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>295.4822118493973</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,25 +10825,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>384.8145893755052</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.0727796301204</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>205.0727796301204</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>165.7594869611094</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>121.3530401802847</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>153.0882789091056</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>96.46779860308476</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>113.6142011099682</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>35.73242048126923</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>219.4949777048681</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>210.3338987519462</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>207.5906868599062</v>
+        <v>74.7297373772536</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>136.4067451147863</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>118.137728930692</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25092,10 +25092,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>166.3497438692349</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>135.8252452118043</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>11.52821577190966</v>
+        <v>248.5778927532274</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>59.76528710461523</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>90.93450923065842</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>28.93855101272511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672540.5267530321</v>
+        <v>672540.5267530322</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672540.5267530321</v>
+        <v>672540.5267530322</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
-        <v>734601.3057409187</v>
+        <v>734601.3057409191</v>
       </c>
       <c r="F2" t="n">
         <v>734601.3057409188</v>
       </c>
       <c r="G2" t="n">
-        <v>734601.3057409188</v>
+        <v>734601.3057409192</v>
       </c>
       <c r="H2" t="n">
         <v>734601.3057409191</v>
       </c>
       <c r="I2" t="n">
-        <v>734601.3057409191</v>
+        <v>734601.305740919</v>
       </c>
       <c r="J2" t="n">
-        <v>734601.3057409191</v>
+        <v>734601.3057409192</v>
       </c>
       <c r="K2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409192</v>
       </c>
       <c r="L2" t="n">
-        <v>734601.3057409191</v>
+        <v>734601.3057409192</v>
       </c>
       <c r="M2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409193</v>
       </c>
       <c r="N2" t="n">
         <v>734601.305740919</v>
       </c>
       <c r="O2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409192</v>
       </c>
       <c r="P2" t="n">
         <v>734601.3057409192</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.900634604586481e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,25 +26423,25 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918987</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918993</v>
@@ -26453,13 +26453,13 @@
         <v>18148.49231918993</v>
       </c>
       <c r="N4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="P4" t="n">
         <v>18148.49231918992</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18148.49231918994</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96712.00701061971</v>
+        <v>-96712.00701061983</v>
       </c>
       <c r="C6" t="n">
-        <v>493255.872203925</v>
+        <v>493255.8722039249</v>
       </c>
       <c r="D6" t="n">
-        <v>493255.8722039248</v>
+        <v>493255.8722039252</v>
       </c>
       <c r="E6" t="n">
-        <v>-107308.1188253916</v>
+        <v>-107980.0737276492</v>
       </c>
       <c r="F6" t="n">
-        <v>620069.2951680153</v>
+        <v>619397.3402657575</v>
       </c>
       <c r="G6" t="n">
-        <v>620069.2951680153</v>
+        <v>619397.3402657578</v>
       </c>
       <c r="H6" t="n">
-        <v>620069.2951680155</v>
+        <v>619397.3402657576</v>
       </c>
       <c r="I6" t="n">
-        <v>620069.2951680155</v>
+        <v>619397.3402657575</v>
       </c>
       <c r="J6" t="n">
-        <v>443646.0759754225</v>
+        <v>442974.1210731648</v>
       </c>
       <c r="K6" t="n">
-        <v>620069.2951680154</v>
+        <v>619397.3402657578</v>
       </c>
       <c r="L6" t="n">
-        <v>620069.2951680155</v>
+        <v>619397.3402657578</v>
       </c>
       <c r="M6" t="n">
-        <v>490426.9803290706</v>
+        <v>489755.025426813</v>
       </c>
       <c r="N6" t="n">
-        <v>620069.2951680154</v>
+        <v>619397.3402657575</v>
       </c>
       <c r="O6" t="n">
-        <v>620069.2951680154</v>
+        <v>619397.3402657578</v>
       </c>
       <c r="P6" t="n">
-        <v>620069.2951680156</v>
+        <v>619397.3402657576</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.875793255733101e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.875793255733101e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.875793255733101e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>220.2278044724705</v>
+        <v>265.5743287276487</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>214.25126233191</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>129.2226540149254</v>
       </c>
       <c r="H5" t="n">
-        <v>104.2975180742066</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>124.6263354318823</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>168.4323246176522</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>47.46376169114649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>57.43600972671231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32569,7 +32569,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32800,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>654.3055518223274</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35433,7 +35433,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
@@ -35658,19 +35658,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>963.3322635028118</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>526.5907265009774</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>507.3053774831311</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36132,19 +36132,19 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>769.2895937392443</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>733.0399850207726</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36448,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>532.0150438593965</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>635.0202028044802</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36843,19 +36843,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37074,25 +37074,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>588.5891319493436</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>926.4712302151056</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>834.4033276796241</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>727.3874636142344</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>923.735705205732</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37785,7 +37785,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37794,13 +37794,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>455.8670844338399</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1257805183395</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3673660.15733363</v>
+        <v>3677065.64845808</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.58283624</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>99.69856304335892</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>307.7743159237151</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>284.5615160058696</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>96.36163317610264</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586834</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>186.2507170030308</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>15.14483238681376</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634315</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396218</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.487334137518388</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1587,7 +1587,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>138.3467445476588</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206842</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534536</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292596</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610203937</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>122.11685474901</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292658</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>31.80684691296301</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>134.441538584933</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
-        <v>144.8192118989156</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>110.711561969173</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>100.4469244214028</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>218.5331130868036</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3678,7 +3678,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>3.559750570600608</v>
+        <v>67.45234385886991</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>104.3550540205965</v>
       </c>
       <c r="X43" t="n">
-        <v>120.6353666620239</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>81.17400253769641</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>67.41386939711298</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1881.118241157406</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2331.237254151024</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y2" t="n">
-        <v>1881.118241157406</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,28 +4412,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508782</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1496.41871256837</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1138.15301396162</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>752.3647613633757</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>341.3788565737681</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4713,19 +4713,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>631.9064409481875</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C8" t="n">
-        <v>262.9439240077758</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2350.78839318292</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.506281012309</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,16 +4892,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5026,7 +5026,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5038,37 +5038,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468569</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,16 +5150,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>391.866433243363</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C13" t="n">
-        <v>390.3640755286979</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839444</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1024.21345597245</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>734.7962859354897</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y13" t="n">
-        <v>391.866433243363</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5278,19 +5278,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5305,25 +5305,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,25 +5357,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.1131475839754</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1769646560685</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="D16" t="n">
-        <v>411.1769646560685</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.870226851287</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W16" t="n">
-        <v>931.4530568143261</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X16" t="n">
-        <v>703.4635059163088</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y16" t="n">
-        <v>580.1131475839754</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,28 +5594,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>691.980755747597</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>523.0445728196901</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>372.9279334073543</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>225.0148398249612</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1866.513008862232</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1866.513008862232</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1611.828520656345</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1322.411350619384</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>1094.421799721367</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>873.6292205778367</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089264</v>
@@ -5755,7 +5755,7 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>786.6724891157196</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
         <v>1237.706702364128</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5986,7 +5986,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,13 +6171,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
         <v>1270.093287563029</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,7 +6211,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
@@ -6226,28 +6226,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1898.858917622687</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294612</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353394</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4243.923885728434</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4702.402088237422</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6262,16 +6262,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>582.3166934139181</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>413.3805104860112</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1528.545092467931</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1239.442225593575</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>984.7577373876879</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>984.7577373876879</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>984.7577373876879</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>763.9651582441578</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6478,37 +6478,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>487.6897527103525</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C31" t="n">
-        <v>487.6897527103525</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D31" t="n">
-        <v>487.6897527103525</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.890966501056</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V31" t="n">
-        <v>1288.206478295169</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W31" t="n">
-        <v>998.7893082582084</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X31" t="n">
-        <v>770.7997573601911</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y31" t="n">
-        <v>669.3382175405923</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6706,10 +6706,10 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.86673817257</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844494</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N32" t="n">
         <v>2602.177459903276</v>
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6797,16 +6797,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6885,7 +6885,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
         <v>1559.196154437386</v>
@@ -6937,19 +6937,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1236.699401366028</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M35" t="n">
-        <v>2215.249704195857</v>
+        <v>1622.42518767663</v>
       </c>
       <c r="N35" t="n">
-        <v>2762.028521254639</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232731</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>823.6560115477723</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839441</v>
@@ -7125,22 +7125,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1454.08660641956</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1454.08660641956</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783409</v>
+        <v>1454.08660641956</v>
       </c>
       <c r="W37" t="n">
-        <v>619.8559841413803</v>
+        <v>1454.08660641956</v>
       </c>
       <c r="X37" t="n">
-        <v>391.866433243363</v>
+        <v>1226.097055521542</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0738540998329</v>
+        <v>1005.304476378012</v>
       </c>
     </row>
     <row r="38">
@@ -7153,13 +7153,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7171,7 +7171,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
@@ -7189,31 +7189,31 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>432.2000540015823</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C40" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D40" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E40" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1352.04781891033</v>
+        <v>1095.823961718703</v>
       </c>
       <c r="W40" t="n">
-        <v>1062.630648873369</v>
+        <v>806.4067916817419</v>
       </c>
       <c r="X40" t="n">
-        <v>834.6410979753522</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="Y40" t="n">
-        <v>613.848518831822</v>
+        <v>578.4172407837245</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
@@ -7417,46 +7417,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1586.925993846823</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2120.457898518747</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2667.23671557753</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7484,16 +7484,16 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L42" t="n">
         <v>794.200663232024</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413803</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="44">
@@ -7648,7 +7648,7 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
         <v>1106.569146563073</v>
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.2948715744237</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C46" t="n">
-        <v>331.3586886465168</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D46" t="n">
-        <v>331.3586886465168</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E46" t="n">
-        <v>331.3586886465168</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="F46" t="n">
-        <v>331.3586886465168</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6558520212358</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>163.6558520212358</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689059</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1674.827124689059</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1674.827124689059</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V46" t="n">
-        <v>1420.142636483172</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W46" t="n">
-        <v>1130.725466446211</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X46" t="n">
-        <v>902.7359155481936</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y46" t="n">
-        <v>681.9433364046635</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395179</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476847</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>170.1140909277306</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>16.80057335908688</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10354,13 +10354,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>132.9990175570114</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>132.9990175570116</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,13 +10594,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>19.79750571619206</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>219.3344627260153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>29.61882225792044</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476822</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>165.7594869611094</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>113.7908987761692</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>128.1651665445298</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.46779860308476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>113.6142011099682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>91.26811680410418</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
-        <v>74.7297373772536</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>69.12041821276429</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.137728930692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.015836189365615</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>248.5778927532274</v>
+        <v>184.6852994649581</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>182.1679443159945</v>
       </c>
       <c r="X43" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>84.85180572133181</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>28.93855101272511</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672540.5267530321</v>
+        <v>672540.5267530322</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672540.5267530321</v>
+        <v>672540.5267530322</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>734601.3057409191</v>
+        <v>734601.3057409195</v>
       </c>
       <c r="F2" t="n">
-        <v>734601.3057409188</v>
+        <v>734601.3057409193</v>
       </c>
       <c r="G2" t="n">
-        <v>734601.3057409192</v>
+        <v>734601.3057409194</v>
       </c>
       <c r="H2" t="n">
         <v>734601.3057409191</v>
       </c>
       <c r="I2" t="n">
+        <v>734601.3057409192</v>
+      </c>
+      <c r="J2" t="n">
+        <v>734601.3057409188</v>
+      </c>
+      <c r="K2" t="n">
         <v>734601.305740919</v>
-      </c>
-      <c r="J2" t="n">
-        <v>734601.3057409192</v>
-      </c>
-      <c r="K2" t="n">
-        <v>734601.3057409192</v>
       </c>
       <c r="L2" t="n">
         <v>734601.3057409192</v>
       </c>
       <c r="M2" t="n">
-        <v>734601.3057409193</v>
+        <v>734601.3057409191</v>
       </c>
       <c r="N2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409192</v>
       </c>
       <c r="O2" t="n">
         <v>734601.3057409192</v>
       </c>
       <c r="P2" t="n">
-        <v>734601.3057409192</v>
+        <v>734601.3057409188</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.900634604586481e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,16 +26423,16 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918987</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
@@ -26444,7 +26444,7 @@
         <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918993</v>
@@ -26453,13 +26453,13 @@
         <v>18148.49231918993</v>
       </c>
       <c r="N4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="P4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18148.49231918992</v>
       </c>
     </row>
     <row r="5">
@@ -26478,25 +26478,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26505,10 +26505,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96712.00701061983</v>
+        <v>-96712.00701061968</v>
       </c>
       <c r="C6" t="n">
-        <v>493255.8722039249</v>
+        <v>493255.872203925</v>
       </c>
       <c r="D6" t="n">
-        <v>493255.8722039252</v>
+        <v>493255.872203925</v>
       </c>
       <c r="E6" t="n">
-        <v>-107980.0737276492</v>
+        <v>-107375.3143156165</v>
       </c>
       <c r="F6" t="n">
-        <v>619397.3402657575</v>
+        <v>620002.09967779</v>
       </c>
       <c r="G6" t="n">
-        <v>619397.3402657578</v>
+        <v>620002.0996777901</v>
       </c>
       <c r="H6" t="n">
-        <v>619397.3402657576</v>
+        <v>620002.0996777897</v>
       </c>
       <c r="I6" t="n">
-        <v>619397.3402657575</v>
+        <v>620002.0996777898</v>
       </c>
       <c r="J6" t="n">
-        <v>442974.1210731648</v>
+        <v>443578.8804851965</v>
       </c>
       <c r="K6" t="n">
-        <v>619397.3402657578</v>
+        <v>620002.0996777896</v>
       </c>
       <c r="L6" t="n">
-        <v>619397.3402657578</v>
+        <v>620002.0996777898</v>
       </c>
       <c r="M6" t="n">
-        <v>489755.025426813</v>
+        <v>490359.7848388449</v>
       </c>
       <c r="N6" t="n">
-        <v>619397.3402657575</v>
+        <v>620002.0996777898</v>
       </c>
       <c r="O6" t="n">
-        <v>619397.3402657578</v>
+        <v>620002.0996777898</v>
       </c>
       <c r="P6" t="n">
-        <v>619397.3402657576</v>
+        <v>620002.0996777895</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.875793255733101e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>265.5743287276487</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>19.9779425464198</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>129.2226540149254</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>273.3694675023664</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>120.105142606069</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>168.4323246176522</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>39.33357018799796</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866331</v>
+        <v>63.37316471551389</v>
       </c>
     </row>
     <row r="11">
@@ -31278,16 +31278,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31299,25 +31299,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32569,7 +32569,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33991,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359038</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,10 +36123,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>507.3053774831311</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36217,7 +36217,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36618,7 +36618,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>76.41377190131166</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,13 +37074,13 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>588.5891319493436</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>685.3008529699231</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37314,13 +37314,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>558.7186215464188</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>727.3874636142344</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37785,7 +37785,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>485.2089366502526</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37803,7 +37803,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359016</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859626</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
